--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Wien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF9DC6F-EE16-418D-9879-0E9FEC9A2BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92EEC48-51F4-4EDA-A4ED-1B76E4898B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Bezirk</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Kosten</t>
   </si>
   <si>
-    <t>Kontra</t>
-  </si>
-  <si>
     <t>https://www.immobilienscout24.at/expose/64bb5b40e9c3a77623c50d7d</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Bezugsdatum</t>
   </si>
   <si>
-    <t>Fläche [m2]</t>
-  </si>
-  <si>
     <t>sofort</t>
   </si>
   <si>
@@ -69,13 +63,13 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>Flaeche</t>
   </si>
 </sst>
 </file>
@@ -183,19 +177,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Link" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="1" dataCellStyle="Link"/>
     <tableColumn id="3" xr3:uid="{74731BCF-CC5F-4C60-815C-EDF81A216709}" name="Bezirk"/>
     <tableColumn id="9" xr3:uid="{08BF5339-C167-4399-96A0-927C14A9FE91}" name="Lat"/>
     <tableColumn id="10" xr3:uid="{EFE111B3-EB66-4014-8BDA-E31E79B1AAA3}" name="Lon"/>
-    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Fläche [m2]" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer "/>
     <tableColumn id="6" xr3:uid="{32B0735F-A33A-4C99-845F-48F2B4024B0F}" name="Kosten" dataCellStyle="Währung"/>
-    <tableColumn id="7" xr3:uid="{266BAF95-5E47-4DF4-96D7-4BAE34A19A48}" name="Spalte1"/>
-    <tableColumn id="8" xr3:uid="{E91220D2-33DE-49A2-BC0C-C819605186E6}" name="Kontra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,24 +473,24 @@
     <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -506,16 +498,10 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>45170</v>
@@ -533,12 +519,12 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -553,9 +539,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>45122</v>
@@ -573,12 +559,12 @@
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -593,12 +579,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -613,9 +599,9 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7">

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92EEC48-51F4-4EDA-A4ED-1B76E4898B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438EEB1-DA67-436A-A9E8-AEAB109B9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Bezirk</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimmer </t>
-  </si>
-  <si>
     <t>Kosten</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Flaeche</t>
+  </si>
+  <si>
+    <t>Zimmer</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
     <tableColumn id="9" xr3:uid="{08BF5339-C167-4399-96A0-927C14A9FE91}" name="Lat"/>
     <tableColumn id="10" xr3:uid="{EFE111B3-EB66-4014-8BDA-E31E79B1AAA3}" name="Lon"/>
     <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer "/>
+    <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer"/>
     <tableColumn id="6" xr3:uid="{32B0735F-A33A-4C99-845F-48F2B4024B0F}" name="Kosten" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,33 +475,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>45170</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>45122</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7">

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438EEB1-DA67-436A-A9E8-AEAB109B9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D6059-0FE6-4E7D-9388-434AF238357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,6 +509,12 @@
       <c r="C2">
         <v>19</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2" s="5">
         <v>69</v>
       </c>
@@ -528,6 +534,12 @@
       </c>
       <c r="C3">
         <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>73</v>
@@ -549,6 +561,12 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" s="5">
         <v>78</v>
       </c>
@@ -569,6 +587,12 @@
       <c r="C5">
         <v>19</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5" s="5">
         <v>95</v>
       </c>
@@ -589,6 +613,12 @@
       <c r="C6">
         <v>17</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6" s="5">
         <v>79</v>
       </c>
@@ -606,6 +636,12 @@
       <c r="B7" s="4"/>
       <c r="C7">
         <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" s="5">
         <v>83</v>

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D6059-0FE6-4E7D-9388-434AF238357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496C030-04D4-4386-8D01-2CC34F792801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,12 +509,6 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2" s="5">
         <v>69</v>
       </c>
@@ -534,12 +528,6 @@
       </c>
       <c r="C3">
         <v>17</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>73</v>
@@ -561,12 +549,6 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4" s="5">
         <v>78</v>
       </c>
@@ -587,12 +569,6 @@
       <c r="C5">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5" s="5">
         <v>95</v>
       </c>
@@ -613,12 +589,6 @@
       <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6" s="5">
         <v>79</v>
       </c>
@@ -636,12 +606,6 @@
       <c r="B7" s="4"/>
       <c r="C7">
         <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7" s="5">
         <v>83</v>

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496C030-04D4-4386-8D01-2CC34F792801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A1953-B546-47FE-A486-BD55947B33E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Bezirk</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Zimmer</t>
+  </si>
+  <si>
+    <t>Nummer</t>
   </si>
 </sst>
 </file>
@@ -131,22 +134,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -163,6 +180,9 @@
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -177,17 +197,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Link" dataCellStyle="Link"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="0" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="1" dataCellStyle="Link"/>
     <tableColumn id="3" xr3:uid="{74731BCF-CC5F-4C60-815C-EDF81A216709}" name="Bezirk"/>
     <tableColumn id="9" xr3:uid="{08BF5339-C167-4399-96A0-927C14A9FE91}" name="Lat"/>
     <tableColumn id="10" xr3:uid="{EFE111B3-EB66-4014-8BDA-E31E79B1AAA3}" name="Lon"/>
-    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer"/>
     <tableColumn id="6" xr3:uid="{32B0735F-A33A-4C99-845F-48F2B4024B0F}" name="Kosten" dataCellStyle="Währung"/>
+    <tableColumn id="7" xr3:uid="{F33DB2B7-516E-4156-8618-E2CF7C5CBF46}" name="Link" dataCellStyle="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,26 +477,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="157.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -498,10 +520,13 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>45170</v>
@@ -518,10 +543,13 @@
       <c r="H2" s="2">
         <v>1195</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -538,10 +566,13 @@
       <c r="H3" s="2">
         <v>1016</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>45122</v>
@@ -558,10 +589,13 @@
       <c r="H4" s="2">
         <v>898</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -578,10 +612,13 @@
       <c r="H5" s="2">
         <v>920</v>
       </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -598,12 +635,17 @@
       <c r="H6" s="2">
         <v>1115</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45153</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
@@ -615,14 +657,17 @@
       </c>
       <c r="H7" s="2">
         <v>1025</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
-    <hyperlink ref="A7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A1953-B546-47FE-A486-BD55947B33E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E22F-3639-4AA8-84C2-25A912784BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Bezirk</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Nummer</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E3qvQ-1689312831-47e29b04deaf499aba2623f51bf31a9a</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -143,27 +149,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -181,7 +194,19 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,17 +222,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="0" dataCellStyle="Link"/>
-    <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="1" dataCellStyle="Link"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
+    <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
     <tableColumn id="3" xr3:uid="{74731BCF-CC5F-4C60-815C-EDF81A216709}" name="Bezirk"/>
     <tableColumn id="9" xr3:uid="{08BF5339-C167-4399-96A0-927C14A9FE91}" name="Lat"/>
     <tableColumn id="10" xr3:uid="{EFE111B3-EB66-4014-8BDA-E31E79B1AAA3}" name="Lon"/>
-    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer"/>
     <tableColumn id="6" xr3:uid="{32B0735F-A33A-4C99-845F-48F2B4024B0F}" name="Kosten" dataCellStyle="Währung"/>
+    <tableColumn id="8" xr3:uid="{44EF8550-C2A2-4C2F-B093-1496FF0F7143}" name="Bild" dataDxfId="0" dataCellStyle="Währung"/>
     <tableColumn id="7" xr3:uid="{F33DB2B7-516E-4156-8618-E2CF7C5CBF46}" name="Link" dataCellStyle="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -477,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,10 +518,11 @@
     <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="157.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="213.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="157.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -520,11 +547,14 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -543,11 +573,14 @@
       <c r="H2" s="2">
         <v>1195</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -566,11 +599,11 @@
       <c r="H3" s="2">
         <v>1016</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -589,11 +622,11 @@
       <c r="H4" s="2">
         <v>898</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -612,11 +645,11 @@
       <c r="H5" s="2">
         <v>920</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -635,11 +668,11 @@
       <c r="H6" s="2">
         <v>1115</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -658,20 +691,21 @@
       <c r="H7" s="2">
         <v>1025</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{4C0F0843-431F-4E38-B1A6-766B7F4C1DFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E22F-3639-4AA8-84C2-25A912784BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546DE3B6-1476-4CC1-B76A-3DB211ACF693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Bezirk</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E3qvQ-1689312831-47e29b04deaf499aba2623f51bf31a9a</t>
+  </si>
+  <si>
+    <t>https://cache.willhaben.at/mmo/4/693/483/224_645391787.jpg</t>
+  </si>
+  <si>
+    <t>https://cache.willhaben.at/mmo/5/693/197/155_-1095966144.jpg</t>
+  </si>
+  <si>
+    <t>https://cache.willhaben.at/mmo/7/682/495/717_-1091772673.jpg</t>
+  </si>
+  <si>
+    <t>https://cache.willhaben.at/mmo/1/689/165/341_-786441090.jpg</t>
+  </si>
+  <si>
+    <t>https://cache.willhaben.at/mmo/5/684/776/145_-476128942.jpg</t>
   </si>
 </sst>
 </file>
@@ -505,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,6 +605,12 @@
       <c r="C3">
         <v>17</v>
       </c>
+      <c r="D3">
+        <v>48.224250905404297</v>
+      </c>
+      <c r="E3">
+        <v>16.3105098246984</v>
+      </c>
       <c r="F3" s="5">
         <v>73</v>
       </c>
@@ -598,6 +619,9 @@
       </c>
       <c r="H3" s="2">
         <v>1016</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -613,6 +637,12 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>48.1811460831359</v>
+      </c>
+      <c r="E4">
+        <v>16.359199378402401</v>
+      </c>
       <c r="F4" s="5">
         <v>78</v>
       </c>
@@ -621,6 +651,9 @@
       </c>
       <c r="H4" s="2">
         <v>898</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -636,6 +669,12 @@
       <c r="C5">
         <v>19</v>
       </c>
+      <c r="D5">
+        <v>48.227338106757202</v>
+      </c>
+      <c r="E5">
+        <v>16.355213370733502</v>
+      </c>
       <c r="F5" s="5">
         <v>95</v>
       </c>
@@ -645,7 +684,10 @@
       <c r="H5" s="2">
         <v>920</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -659,6 +701,12 @@
       <c r="C6">
         <v>17</v>
       </c>
+      <c r="D6">
+        <v>48.215990344736802</v>
+      </c>
+      <c r="E6">
+        <v>16.330266459401201</v>
+      </c>
       <c r="F6" s="5">
         <v>79</v>
       </c>
@@ -667,6 +715,9 @@
       </c>
       <c r="H6" s="2">
         <v>1115</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
@@ -682,6 +733,12 @@
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7">
+        <v>48.187539527036897</v>
+      </c>
+      <c r="E7">
+        <v>16.3850649576063</v>
+      </c>
       <c r="F7" s="5">
         <v>83</v>
       </c>
@@ -690,6 +747,9 @@
       </c>
       <c r="H7" s="2">
         <v>1025</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
@@ -702,10 +762,16 @@
     <hyperlink ref="J7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
     <hyperlink ref="J2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
     <hyperlink ref="I2" r:id="rId5" xr:uid="{4C0F0843-431F-4E38-B1A6-766B7F4C1DFF}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{072C1CD6-41DA-404D-BF7F-1625F5EEB603}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{1C1E9C2C-D27D-48FB-A9A0-32EC4BE0F46D}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{6F6C6EFD-4425-4B5C-BEA1-3E8F0487ACF5}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
+    <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546DE3B6-1476-4CC1-B76A-3DB211ACF693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C106A20-DF23-40EF-8950-487643E46CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +532,7 @@
     <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="213.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="157.08984375" bestFit="1" customWidth="1"/>
   </cols>

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C106A20-DF23-40EF-8950-487643E46CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621E71D-BEB2-4E8E-87D5-D87240981380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Bezirk</t>
   </si>
@@ -94,14 +94,21 @@
   </si>
   <si>
     <t>https://cache.willhaben.at/mmo/5/684/776/145_-476128942.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/259/5cfc97c24a06487db54aa01c2ed56ea6/big-webp/wiedner-hauptstrasse-.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -150,12 +157,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -165,11 +174,18 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" xr:uid="{4E8FE44C-09D9-4599-BF4E-7C13B9911489}"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Währung 2" xfId="3" xr:uid="{C5186319-862B-4BBD-B252-A7A1AAFC8885}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -237,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J8" totalsRowShown="0">
+  <autoFilter ref="A1:J8" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -518,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +546,7 @@
     <col min="2" max="2" width="14.1796875" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="213.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -753,6 +769,38 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45170</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>48.191374732872603</v>
+      </c>
+      <c r="E8">
+        <v>16.369702441589901</v>
+      </c>
+      <c r="F8" s="12">
+        <v>76</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>990</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +816,11 @@
     <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{02CD38FD-47B9-4580-867F-112B176666D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621E71D-BEB2-4E8E-87D5-D87240981380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C106A20-DF23-40EF-8950-487643E46CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Bezirk</t>
   </si>
@@ -94,21 +94,14 @@
   </si>
   <si>
     <t>https://cache.willhaben.at/mmo/5/684/776/145_-476128942.jpg</t>
-  </si>
-  <si>
-    <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
-  </si>
-  <si>
-    <t>https://asset.dibeo.at/259/5cfc97c24a06487db54aa01c2ed56ea6/big-webp/wiedner-hauptstrasse-.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -157,14 +150,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -174,18 +165,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="4" xr:uid="{4E8FE44C-09D9-4599-BF4E-7C13B9911489}"/>
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
-    <cellStyle name="Währung 2" xfId="3" xr:uid="{C5186319-862B-4BBD-B252-A7A1AAFC8885}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -253,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J8" totalsRowShown="0">
-  <autoFilter ref="A1:J8" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -534,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +530,7 @@
     <col min="2" max="2" width="14.1796875" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="213.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -769,38 +753,6 @@
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>45170</v>
-      </c>
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>48.191374732872603</v>
-      </c>
-      <c r="E8">
-        <v>16.369702441589901</v>
-      </c>
-      <c r="F8" s="12">
-        <v>76</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>990</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -816,11 +768,10 @@
     <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{02CD38FD-47B9-4580-867F-112B176666D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C106A20-DF23-40EF-8950-487643E46CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A183B-2190-45A7-9998-ED54CB1398DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Bezirk</t>
   </si>
@@ -94,6 +94,294 @@
   </si>
   <si>
     <t>https://cache.willhaben.at/mmo/5/684/776/145_-476128942.jpg</t>
+  </si>
+  <si>
+    <t>Meidling Hauptstraße</t>
+  </si>
+  <si>
+    <t>Friedensbrücke</t>
+  </si>
+  <si>
+    <t>Heiligenstadt</t>
+  </si>
+  <si>
+    <t>Längenfeldgasse</t>
+  </si>
+  <si>
+    <t>Siebenhirten</t>
+  </si>
+  <si>
+    <t>Jägerstraße</t>
+  </si>
+  <si>
+    <t>Erlaaer Straße</t>
+  </si>
+  <si>
+    <t>Floridsdorf</t>
+  </si>
+  <si>
+    <t>Seestadt</t>
+  </si>
+  <si>
+    <t>Stadlau</t>
+  </si>
+  <si>
+    <t>Hausfeldstraße</t>
+  </si>
+  <si>
+    <t>Aspernstraße</t>
+  </si>
+  <si>
+    <t>Donauspital</t>
+  </si>
+  <si>
+    <t>Hardeggasse</t>
+  </si>
+  <si>
+    <t>Donaustadtbrücke</t>
+  </si>
+  <si>
+    <t>Aspern Nord</t>
+  </si>
+  <si>
+    <t>Donaumarina</t>
+  </si>
+  <si>
+    <t>Stadion</t>
+  </si>
+  <si>
+    <t>Krieau</t>
+  </si>
+  <si>
+    <t>Messe Prater</t>
+  </si>
+  <si>
+    <t>Leopoldau</t>
+  </si>
+  <si>
+    <t>Großfeldsiedlung</t>
+  </si>
+  <si>
+    <t>Alte Donau</t>
+  </si>
+  <si>
+    <t>Aderklaaer Straße</t>
+  </si>
+  <si>
+    <t>Nestroyplatz</t>
+  </si>
+  <si>
+    <t>Rennbahnweg</t>
+  </si>
+  <si>
+    <t>Donauinsel</t>
+  </si>
+  <si>
+    <t>Südtiroler Platz</t>
+  </si>
+  <si>
+    <t>Kagraner Platz</t>
+  </si>
+  <si>
+    <t>Kagran</t>
+  </si>
+  <si>
+    <t>Reumannplatz</t>
+  </si>
+  <si>
+    <t>Ottakring</t>
+  </si>
+  <si>
+    <t>Alaudagasse</t>
+  </si>
+  <si>
+    <t>Altes Landgut</t>
+  </si>
+  <si>
+    <t>Oberlaa</t>
+  </si>
+  <si>
+    <t>Troststraße</t>
+  </si>
+  <si>
+    <t>Neulaa</t>
+  </si>
+  <si>
+    <t>Alser Straße</t>
+  </si>
+  <si>
+    <t>Braunschweiggasse</t>
+  </si>
+  <si>
+    <t>Burggasse-Stadthalle</t>
+  </si>
+  <si>
+    <t>Erdberg</t>
+  </si>
+  <si>
+    <t>Zippererstraße</t>
+  </si>
+  <si>
+    <t>Gumpendorfer Straße</t>
+  </si>
+  <si>
+    <t>Dresdner Straße</t>
+  </si>
+  <si>
+    <t>Herrengasse</t>
+  </si>
+  <si>
+    <t>Hietzing</t>
+  </si>
+  <si>
+    <t>Johnstraße</t>
+  </si>
+  <si>
+    <t>Josefstädter Straße</t>
+  </si>
+  <si>
+    <t>Kaisermühlen-VIC</t>
+  </si>
+  <si>
+    <t>Kardinal-Nagl-Platz</t>
+  </si>
+  <si>
+    <t>Karlsplatz</t>
+  </si>
+  <si>
+    <t>Keplerplatz</t>
+  </si>
+  <si>
+    <t>Kettenbrückengasse</t>
+  </si>
+  <si>
+    <t>Neubaugasse</t>
+  </si>
+  <si>
+    <t>Landstraße / Wien Mitte (ÖBB)</t>
+  </si>
+  <si>
+    <t>Michelbeuern-AKH</t>
+  </si>
+  <si>
+    <t>Niederhofstraße</t>
+  </si>
+  <si>
+    <t>Nußdorfer Straße</t>
+  </si>
+  <si>
+    <t>Ober Sankt Veit</t>
+  </si>
+  <si>
+    <t>Perfektastraße</t>
+  </si>
+  <si>
+    <t>Philadelphiabrücke bzw. Meidling (ÖBB)</t>
+  </si>
+  <si>
+    <t>Pilgramgasse</t>
+  </si>
+  <si>
+    <t>Hütteldorfer Straße</t>
+  </si>
+  <si>
+    <t>Praterstern bzw. Wien Nord (ÖBB)</t>
+  </si>
+  <si>
+    <t>Spittelau</t>
+  </si>
+  <si>
+    <t>Rochusgasse</t>
+  </si>
+  <si>
+    <t>Roßauer Lände</t>
+  </si>
+  <si>
+    <t>Schottenring</t>
+  </si>
+  <si>
+    <t>Schwedenplatz</t>
+  </si>
+  <si>
+    <t>Schlachthausgasse</t>
+  </si>
+  <si>
+    <t>Schweglerstraße</t>
+  </si>
+  <si>
+    <t>Stadtpark</t>
+  </si>
+  <si>
+    <t>Kendlerstraße</t>
+  </si>
+  <si>
+    <t>Stephansplatz</t>
+  </si>
+  <si>
+    <t>Taubstummengasse</t>
+  </si>
+  <si>
+    <t>Thaliastraße</t>
+  </si>
+  <si>
+    <t>Tscherttegasse</t>
+  </si>
+  <si>
+    <t>Unter Sankt Veit</t>
+  </si>
+  <si>
+    <t>Volkstheater</t>
+  </si>
+  <si>
+    <t>Vorgartenstraße</t>
+  </si>
+  <si>
+    <t>Westbahnhof</t>
+  </si>
+  <si>
+    <t>Alterlaa</t>
+  </si>
+  <si>
+    <t>Währinger Straße-Volksoper</t>
+  </si>
+  <si>
+    <t>Zieglergasse</t>
+  </si>
+  <si>
+    <t>Schottentor</t>
+  </si>
+  <si>
+    <t>Neue Donau</t>
+  </si>
+  <si>
+    <t>Handelskai</t>
+  </si>
+  <si>
+    <t>Gasometer</t>
+  </si>
+  <si>
+    <t>Enkplatz</t>
+  </si>
+  <si>
+    <t>Taborstraße</t>
+  </si>
+  <si>
+    <t>Hütteldorf</t>
+  </si>
+  <si>
+    <t>Margaretengürtel</t>
+  </si>
+  <si>
+    <t>Schönbrunn</t>
+  </si>
+  <si>
+    <t>Am Schöpfwerk</t>
+  </si>
+  <si>
+    <t>Stubentor</t>
+  </si>
+  <si>
+    <t>Simmering</t>
   </si>
 </sst>
 </file>
@@ -103,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +420,309 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,13 +730,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -165,11 +894,56 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="44">
+    <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="25" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="29" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="33" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="22" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="26" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="30" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="34" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="23" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="27" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="31" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="35" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="39" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="43" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="20" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="24" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="28" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="40" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="13" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="19" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="18" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="17" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="9" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="3" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="7" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="14" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Warnender Text" xfId="16" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="15" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -237,8 +1011,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J103" totalsRowShown="0">
+  <autoFilter ref="A1:J103" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -518,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,6 +1528,2406 @@
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8" s="10">
+        <v>48.183644993163902</v>
+      </c>
+      <c r="E8" s="9">
+        <v>16.327764778217102</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>48.227767239604397</v>
+      </c>
+      <c r="E9" s="9">
+        <v>16.364011620482898</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10">
+        <v>99</v>
+      </c>
+      <c r="D10" s="10">
+        <v>48.248451460447001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>16.365810794397799</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>48.1848015142332</v>
+      </c>
+      <c r="E11" s="9">
+        <v>16.334943316802502</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10">
+        <v>99</v>
+      </c>
+      <c r="D12" s="10">
+        <v>48.130515204099098</v>
+      </c>
+      <c r="E12" s="9">
+        <v>16.3098375340189</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>48.235217131100498</v>
+      </c>
+      <c r="E13" s="9">
+        <v>16.368636832930299</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10">
+        <v>99</v>
+      </c>
+      <c r="D14" s="10">
+        <v>48.141921600787903</v>
+      </c>
+      <c r="E14" s="9">
+        <v>16.316531068234401</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>48.256204731052698</v>
+      </c>
+      <c r="E15" s="9">
+        <v>16.400442533397499</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10">
+        <v>99</v>
+      </c>
+      <c r="D16" s="10">
+        <v>48.226254178910303</v>
+      </c>
+      <c r="E16" s="9">
+        <v>16.508438129988999</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10">
+        <v>99</v>
+      </c>
+      <c r="D17" s="10">
+        <v>48.219817359097704</v>
+      </c>
+      <c r="E17" s="9">
+        <v>16.449662667515199</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10">
+        <v>99</v>
+      </c>
+      <c r="D18" s="10">
+        <v>48.233409768503201</v>
+      </c>
+      <c r="E18" s="9">
+        <v>16.485772626975599</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="10">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10">
+        <v>48.222523966125998</v>
+      </c>
+      <c r="E19" s="9">
+        <v>16.474871718755502</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10">
+        <v>99</v>
+      </c>
+      <c r="D20" s="10">
+        <v>48.219419110545097</v>
+      </c>
+      <c r="E20" s="9">
+        <v>16.466612161098698</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>48.220896078368298</v>
+      </c>
+      <c r="E21" s="9">
+        <v>16.457749951315201</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="10">
+        <v>99</v>
+      </c>
+      <c r="D22" s="10">
+        <v>48.211768603479896</v>
+      </c>
+      <c r="E22" s="9">
+        <v>16.440125089908801</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="10">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>48.2345079150533</v>
+      </c>
+      <c r="E23" s="9">
+        <v>16.5044937908843</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="10">
+        <v>99</v>
+      </c>
+      <c r="D24" s="10">
+        <v>48.2064650265471</v>
+      </c>
+      <c r="E24" s="9">
+        <v>16.431617486203798</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="10">
+        <v>99</v>
+      </c>
+      <c r="D25" s="10">
+        <v>48.210671402885502</v>
+      </c>
+      <c r="E25" s="9">
+        <v>16.420255255579601</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="10">
+        <v>99</v>
+      </c>
+      <c r="D26" s="10">
+        <v>48.214686271632097</v>
+      </c>
+      <c r="E26" s="9">
+        <v>16.413752066012002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="10">
+        <v>99</v>
+      </c>
+      <c r="D27" s="10">
+        <v>48.217792010671999</v>
+      </c>
+      <c r="E27" s="9">
+        <v>16.404963120853299</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10">
+        <v>99</v>
+      </c>
+      <c r="D28" s="10">
+        <v>48.277517865692502</v>
+      </c>
+      <c r="E28" s="9">
+        <v>16.452139552735201</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="10">
+        <v>99</v>
+      </c>
+      <c r="D29" s="10">
+        <v>48.271010765636902</v>
+      </c>
+      <c r="E29" s="9">
+        <v>16.4478823771306</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="10">
+        <v>99</v>
+      </c>
+      <c r="D30" s="10">
+        <v>48.238337984732603</v>
+      </c>
+      <c r="E30" s="9">
+        <v>16.424901236767599</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="10">
+        <v>99</v>
+      </c>
+      <c r="D31" s="10">
+        <v>48.2634204838904</v>
+      </c>
+      <c r="E31" s="9">
+        <v>16.451625918740199</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10">
+        <v>99</v>
+      </c>
+      <c r="D32" s="10">
+        <v>48.215091449058001</v>
+      </c>
+      <c r="E32" s="9">
+        <v>16.385113644869399</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="10">
+        <v>99</v>
+      </c>
+      <c r="D33" s="10">
+        <v>48.257602853521902</v>
+      </c>
+      <c r="E33" s="9">
+        <v>16.449641645714301</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10">
+        <v>99</v>
+      </c>
+      <c r="D34" s="10">
+        <v>48.229227673623001</v>
+      </c>
+      <c r="E34" s="9">
+        <v>16.4113600875705</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10">
+        <v>99</v>
+      </c>
+      <c r="D35" s="10">
+        <v>48.187145905485302</v>
+      </c>
+      <c r="E35" s="9">
+        <v>16.373613136637299</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10">
+        <v>99</v>
+      </c>
+      <c r="D36" s="10">
+        <v>48.250222543967702</v>
+      </c>
+      <c r="E36" s="9">
+        <v>16.443256524414501</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="10">
+        <v>99</v>
+      </c>
+      <c r="D37" s="10">
+        <v>48.242959213349003</v>
+      </c>
+      <c r="E37" s="9">
+        <v>16.432858206625799</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10">
+        <v>99</v>
+      </c>
+      <c r="D38" s="10">
+        <v>48.174989952355297</v>
+      </c>
+      <c r="E38" s="9">
+        <v>16.377905052346598</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="10">
+        <v>99</v>
+      </c>
+      <c r="D39" s="10">
+        <v>48.211059149435798</v>
+      </c>
+      <c r="E39" s="9">
+        <v>16.311366713192299</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>3</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="10">
+        <v>99</v>
+      </c>
+      <c r="D40" s="10">
+        <v>48.153632091104797</v>
+      </c>
+      <c r="E40" s="9">
+        <v>16.3823650872299</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="10">
+        <v>99</v>
+      </c>
+      <c r="D41" s="10">
+        <v>48.161948857712801</v>
+      </c>
+      <c r="E41" s="9">
+        <v>16.3832292708537</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="10">
+        <v>99</v>
+      </c>
+      <c r="D42" s="10">
+        <v>48.142191451525598</v>
+      </c>
+      <c r="E42" s="9">
+        <v>16.400430201566301</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10">
+        <v>99</v>
+      </c>
+      <c r="D43" s="10">
+        <v>48.1691627655959</v>
+      </c>
+      <c r="E43" s="9">
+        <v>16.380315900921801</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10">
+        <v>99</v>
+      </c>
+      <c r="D44" s="10">
+        <v>48.145589417483002</v>
+      </c>
+      <c r="E44" s="9">
+        <v>16.3865542933024</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="10">
+        <v>99</v>
+      </c>
+      <c r="D45" s="10">
+        <v>48.216775002793597</v>
+      </c>
+      <c r="E45" s="9">
+        <v>16.3418152487261</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
+        <v>6</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="10">
+        <v>99</v>
+      </c>
+      <c r="D46" s="10">
+        <v>48.189412360620402</v>
+      </c>
+      <c r="E46" s="9">
+        <v>16.295803553490099</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>4</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="10">
+        <v>99</v>
+      </c>
+      <c r="D47" s="10">
+        <v>48.203365085364901</v>
+      </c>
+      <c r="E47" s="9">
+        <v>16.3371928934422</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
+        <v>6</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="10">
+        <v>99</v>
+      </c>
+      <c r="D48" s="10">
+        <v>48.191425114398697</v>
+      </c>
+      <c r="E48" s="9">
+        <v>16.4141405460595</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>3</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="10">
+        <v>99</v>
+      </c>
+      <c r="D49" s="10">
+        <v>48.180439246243203</v>
+      </c>
+      <c r="E49" s="9">
+        <v>16.412065829472301</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>3</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="10">
+        <v>99</v>
+      </c>
+      <c r="D50" s="10">
+        <v>48.190867982179199</v>
+      </c>
+      <c r="E50" s="9">
+        <v>16.3375114209149</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>6</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="10">
+        <v>99</v>
+      </c>
+      <c r="D51" s="10">
+        <v>48.237255632164</v>
+      </c>
+      <c r="E51" s="9">
+        <v>16.380131011741501</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>6</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="10">
+        <v>99</v>
+      </c>
+      <c r="D52" s="10">
+        <v>48.2093447703745</v>
+      </c>
+      <c r="E52" s="9">
+        <v>16.365412433048899</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>3</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="10">
+        <v>99</v>
+      </c>
+      <c r="D53" s="10">
+        <v>48.187546651901897</v>
+      </c>
+      <c r="E53" s="9">
+        <v>16.305031084672301</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>4</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="10">
+        <v>99</v>
+      </c>
+      <c r="D54" s="10">
+        <v>48.197642239755503</v>
+      </c>
+      <c r="E54" s="9">
+        <v>16.320080048337701</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>3</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="10">
+        <v>99</v>
+      </c>
+      <c r="D55" s="10">
+        <v>48.211550222471303</v>
+      </c>
+      <c r="E55" s="9">
+        <v>16.339161406618999</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>6</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="10">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10">
+        <v>48.232861845873003</v>
+      </c>
+      <c r="E56" s="9">
+        <v>16.416496832133301</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="10">
+        <v>99</v>
+      </c>
+      <c r="D57" s="10">
+        <v>48.197558621915299</v>
+      </c>
+      <c r="E57" s="9">
+        <v>16.399882982436001</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>3</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="10">
+        <v>99</v>
+      </c>
+      <c r="D58" s="10">
+        <v>48.200461908387297</v>
+      </c>
+      <c r="E58" s="9">
+        <v>16.368679459080099</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>4</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="10">
+        <v>99</v>
+      </c>
+      <c r="D59" s="10">
+        <v>48.179192090746</v>
+      </c>
+      <c r="E59" s="9">
+        <v>16.3761836340366</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="10">
+        <v>99</v>
+      </c>
+      <c r="D60" s="10">
+        <v>48.196614938120703</v>
+      </c>
+      <c r="E60" s="9">
+        <v>16.357976518583701</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>4</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="10">
+        <v>99</v>
+      </c>
+      <c r="D61" s="10">
+        <v>48.1991725051343</v>
+      </c>
+      <c r="E61" s="9">
+        <v>16.3522751088353</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>3</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="10">
+        <v>99</v>
+      </c>
+      <c r="D62" s="10">
+        <v>48.206301017717301</v>
+      </c>
+      <c r="E62" s="9">
+        <v>16.3839158186181</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>3</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="10">
+        <v>99</v>
+      </c>
+      <c r="D63" s="10">
+        <v>48.221281121207802</v>
+      </c>
+      <c r="E63" s="9">
+        <v>16.344276994169501</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>6</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="10">
+        <v>99</v>
+      </c>
+      <c r="D64" s="10">
+        <v>48.180776249100902</v>
+      </c>
+      <c r="E64" s="9">
+        <v>16.331180131750799</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>6</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="10">
+        <v>99</v>
+      </c>
+      <c r="D65" s="10">
+        <v>48.231323460580803</v>
+      </c>
+      <c r="E65" s="9">
+        <v>16.352435723682099</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
+        <v>6</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="10">
+        <v>99</v>
+      </c>
+      <c r="D66" s="10">
+        <v>48.192239540974803</v>
+      </c>
+      <c r="E66" s="9">
+        <v>16.276205909609502</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>4</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="10">
+        <v>99</v>
+      </c>
+      <c r="D67" s="10">
+        <v>48.136886078204199</v>
+      </c>
+      <c r="E67" s="9">
+        <v>16.313447385677701</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <v>6</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="10">
+        <v>99</v>
+      </c>
+      <c r="D68" s="10">
+        <v>48.174201770401297</v>
+      </c>
+      <c r="E68" s="9">
+        <v>16.3314961287012</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
+        <v>6</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="10">
+        <v>99</v>
+      </c>
+      <c r="D69" s="10">
+        <v>48.192031302903899</v>
+      </c>
+      <c r="E69" s="9">
+        <v>16.354241098311199</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>4</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="10">
+        <v>99</v>
+      </c>
+      <c r="D70" s="10">
+        <v>48.199796591292497</v>
+      </c>
+      <c r="E70" s="9">
+        <v>16.3113939494243</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>3</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="10">
+        <v>99</v>
+      </c>
+      <c r="D71" s="10">
+        <v>48.218871301428003</v>
+      </c>
+      <c r="E71" s="9">
+        <v>16.391381828582801</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>1</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="10">
+        <v>99</v>
+      </c>
+      <c r="D72" s="10">
+        <v>48.2356312778427</v>
+      </c>
+      <c r="E72" s="9">
+        <v>16.358433430790001</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>4</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="10">
+        <v>99</v>
+      </c>
+      <c r="D73" s="10">
+        <v>48.202085261385697</v>
+      </c>
+      <c r="E73" s="9">
+        <v>16.3922538196944</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>3</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="10">
+        <v>99</v>
+      </c>
+      <c r="D74" s="10">
+        <v>48.222256371270298</v>
+      </c>
+      <c r="E74" s="9">
+        <v>16.367568667360299</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>4</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="10">
+        <v>99</v>
+      </c>
+      <c r="D75" s="10">
+        <v>48.217146092964299</v>
+      </c>
+      <c r="E75" s="9">
+        <v>16.371244989355699</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>4</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="10">
+        <v>99</v>
+      </c>
+      <c r="D76" s="10">
+        <v>48.211805714655902</v>
+      </c>
+      <c r="E76" s="9">
+        <v>16.3783661729078</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="10">
+        <v>99</v>
+      </c>
+      <c r="D77" s="10">
+        <v>48.194414017458499</v>
+      </c>
+      <c r="E77" s="9">
+        <v>16.406748730417199</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>3</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="10">
+        <v>99</v>
+      </c>
+      <c r="D78" s="10">
+        <v>48.197800812797901</v>
+      </c>
+      <c r="E78" s="9">
+        <v>16.328518689581301</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>3</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="10">
+        <v>99</v>
+      </c>
+      <c r="D79" s="10">
+        <v>48.202808579018303</v>
+      </c>
+      <c r="E79" s="9">
+        <v>16.379578467601899</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
+        <v>4</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="10">
+        <v>99</v>
+      </c>
+      <c r="D80" s="10">
+        <v>48.204540181864402</v>
+      </c>
+      <c r="E80" s="9">
+        <v>16.3091474289552</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>3</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="10">
+        <v>99</v>
+      </c>
+      <c r="D81" s="10">
+        <v>48.208046834199401</v>
+      </c>
+      <c r="E81" s="9">
+        <v>16.3715306120903</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>1</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="10">
+        <v>99</v>
+      </c>
+      <c r="D82" s="10">
+        <v>48.193916076791602</v>
+      </c>
+      <c r="E82" s="9">
+        <v>16.370341054127302</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>1</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="10">
+        <v>99</v>
+      </c>
+      <c r="D83" s="10">
+        <v>48.2078009691215</v>
+      </c>
+      <c r="E83" s="9">
+        <v>16.338015523652398</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>6</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="10">
+        <v>99</v>
+      </c>
+      <c r="D84" s="10">
+        <v>48.1648596901655</v>
+      </c>
+      <c r="E84" s="9">
+        <v>16.327668774911601</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <v>6</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="10">
+        <v>99</v>
+      </c>
+      <c r="D85" s="10">
+        <v>48.191127863278602</v>
+      </c>
+      <c r="E85" s="9">
+        <v>16.285948386992299</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>4</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="10">
+        <v>99</v>
+      </c>
+      <c r="D86" s="10">
+        <v>48.204915658283099</v>
+      </c>
+      <c r="E86" s="9">
+        <v>16.3582601366227</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <v>3</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="10">
+        <v>99</v>
+      </c>
+      <c r="D87" s="10">
+        <v>48.2236292672643</v>
+      </c>
+      <c r="E87" s="9">
+        <v>16.401076559650701</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <v>1</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="10">
+        <v>99</v>
+      </c>
+      <c r="D88" s="10">
+        <v>48.195838255457602</v>
+      </c>
+      <c r="E88" s="9">
+        <v>16.3396016754645</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <v>3</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="10">
+        <v>99</v>
+      </c>
+      <c r="D89" s="10">
+        <v>48.150727425264598</v>
+      </c>
+      <c r="E89" s="9">
+        <v>16.316875926933299</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>6</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="10">
+        <v>99</v>
+      </c>
+      <c r="D90" s="10">
+        <v>48.225586839174298</v>
+      </c>
+      <c r="E90" s="9">
+        <v>16.349500070214798</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>6</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="10">
+        <v>99</v>
+      </c>
+      <c r="D91" s="10">
+        <v>48.1970803711367</v>
+      </c>
+      <c r="E91" s="9">
+        <v>16.3459802174687</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
+        <v>3</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="10">
+        <v>99</v>
+      </c>
+      <c r="D92" s="10">
+        <v>48.214526571260997</v>
+      </c>
+      <c r="E92" s="9">
+        <v>16.361836178517599</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12">
+        <v>2</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="10">
+        <v>99</v>
+      </c>
+      <c r="D93" s="10">
+        <v>48.246405762873401</v>
+      </c>
+      <c r="E93" s="9">
+        <v>16.394834441936599</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>6</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="10">
+        <v>99</v>
+      </c>
+      <c r="D94" s="10">
+        <v>48.241860535835002</v>
+      </c>
+      <c r="E94" s="9">
+        <v>16.385702894060199</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>6</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="10">
+        <v>99</v>
+      </c>
+      <c r="D95" s="10">
+        <v>48.185143015384497</v>
+      </c>
+      <c r="E95" s="9">
+        <v>16.417467121381801</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>3</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="10">
+        <v>99</v>
+      </c>
+      <c r="D96" s="10">
+        <v>48.174718736083598</v>
+      </c>
+      <c r="E96" s="9">
+        <v>16.414796672573601</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
+        <v>3</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="10">
+        <v>99</v>
+      </c>
+      <c r="D97" s="10">
+        <v>48.219130313111201</v>
+      </c>
+      <c r="E97" s="9">
+        <v>16.381291851267001</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>2</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="10">
+        <v>99</v>
+      </c>
+      <c r="D98" s="10">
+        <v>48.1969570149733</v>
+      </c>
+      <c r="E98" s="9">
+        <v>16.260835508353701</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>4</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="10">
+        <v>99</v>
+      </c>
+      <c r="D99" s="10">
+        <v>48.188483960992599</v>
+      </c>
+      <c r="E99" s="9">
+        <v>16.342954397677602</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>4</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="10">
+        <v>99</v>
+      </c>
+      <c r="D100" s="10">
+        <v>48.18604725454</v>
+      </c>
+      <c r="E100" s="9">
+        <v>16.3189556071334</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>4</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="10">
+        <v>99</v>
+      </c>
+      <c r="D101" s="10">
+        <v>48.1607153820297</v>
+      </c>
+      <c r="E101" s="9">
+        <v>16.324229809458199</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>6</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="10">
+        <v>99</v>
+      </c>
+      <c r="D102" s="10">
+        <v>48.206816355148803</v>
+      </c>
+      <c r="E102" s="9">
+        <v>16.3791309479708</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>3</v>
+      </c>
+      <c r="H102" s="12">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="10">
+        <v>99</v>
+      </c>
+      <c r="D103" s="10">
+        <v>48.169649232274203</v>
+      </c>
+      <c r="E103" s="9">
+        <v>16.4207002221215</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>3</v>
+      </c>
+      <c r="H103" s="12">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D27A6F-F25D-4E42-BE0D-292ED647F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC58C4-1F58-4615-A24C-E35C98DDF7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Bezirk</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>https://cache.willhaben.at/mmo/5/684/776/145_-476128942.jpg</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/259/5cfc97c24a06487db54aa01c2ed56ea6/big-webp/wiedner-hauptstrasse-.webp</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,8 +601,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -606,8 +614,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="25" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="29" builtinId="38" customBuiltin="1"/>
@@ -650,6 +660,8 @@
     <cellStyle name="Überschrift 4" xfId="7" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Verknüpfte Zelle" xfId="14" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Währung 2" xfId="44" xr:uid="{18D2FED9-3300-4D62-B140-EA0749D61FB3}"/>
+    <cellStyle name="Währung 3" xfId="45" xr:uid="{3E173512-4D09-475F-B8C3-AB2A6A07D9E9}"/>
     <cellStyle name="Warnender Text" xfId="16" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="15" builtinId="23" customBuiltin="1"/>
   </cellStyles>
@@ -1000,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,6 +1249,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>48.191374732872603</v>
+      </c>
+      <c r="E8">
+        <v>16.369702441589901</v>
+      </c>
+      <c r="F8" s="5">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>990</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
@@ -1250,10 +1294,11 @@
     <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{5F63B64E-6006-4343-BCED-C7BC51826116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC58C4-1F58-4615-A24C-E35C98DDF7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD89E7-BCE5-49FA-A2C6-05BD20EC262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Bezirk</t>
   </si>
@@ -100,6 +101,24 @@
   </si>
   <si>
     <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/753/709ef511ce804a24829520ba33376dda/big-webp/modern-ausgestattete.webp</t>
+  </si>
+  <si>
+    <t>https://www.wg-gesucht.de/10309597.html</t>
+  </si>
+  <si>
+    <t>https://img.wg-gesucht.de/media/up/2023/30/968fa1c801b0d0b0aee71849961e7b7ed4ac84a04d055b4ec819b5057a8e07a0_082c6b95_3822_4ce5_9258_47093d19bade.sized.JPG</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/sulek/w-miete-miete/wie/1050/bis120m2/1495069/acvblr</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/467/83754b3583a04836848fc2b0831bdaa4/big-webp/wohnzimmer.webp</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/imv/w-miete-miete/wie/1030/bis90m2/1507045/acvblr</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,6 +1300,102 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45170</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>48.1857062785569</v>
+      </c>
+      <c r="E9">
+        <v>16.3527917208906</v>
+      </c>
+      <c r="F9" s="5">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>48.190726994588204</v>
+      </c>
+      <c r="E10">
+        <v>16.326481199566999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>68</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1053</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>48.201588356949202</v>
+      </c>
+      <c r="E11">
+        <v>16.390848359916099</v>
+      </c>
+      <c r="F11" s="5">
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
@@ -1295,10 +1410,25 @@
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
     <hyperlink ref="J8" r:id="rId12" xr:uid="{5F63B64E-6006-4343-BCED-C7BC51826116}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{FFEA6309-5905-42D5-A9C4-FA398F4648FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C1147-52DE-4C11-8FC0-D55643564AE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD89E7-BCE5-49FA-A2C6-05BD20EC262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D69D89-9DC5-4B20-AFEC-45B7D4CBF8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Bezirk</t>
   </si>
@@ -34,9 +33,6 @@
     <t>Kosten</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.at/expose/64bb5b40e9c3a77623c50d7d</t>
-  </si>
-  <si>
     <t>https://www.willhaben.at/iad/immobilien/d/mietwohnungen/wien/wien-1170-hernals/charmante-wohnung-mit-loggia-in-neuwaldegg-693483224</t>
   </si>
   <si>
@@ -79,9 +75,6 @@
     <t>Bild</t>
   </si>
   <si>
-    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E3qvQ-1689312831-47e29b04deaf499aba2623f51bf31a9a</t>
-  </si>
-  <si>
     <t>https://cache.willhaben.at/mmo/4/693/483/224_645391787.jpg</t>
   </si>
   <si>
@@ -119,6 +112,42 @@
   </si>
   <si>
     <t>https://www.dibeo.at/expose/imv/w-miete-miete/wie/1030/bis90m2/1507045/acvblr</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001apN51-1687174901-839fd9f63705492e963fb0f9932f74c1</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001NbW1I-1496956475-28f1489b753b4171b499cde10eed725f</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b7fd4a7f4db1c4f7279d2c</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/6490262ae31aca7c48c25db8</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E84g4-31e3ac0fdc8949f38154bff46386db12</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/645a2ceeb190b55e83399d39</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83Tp-1622641665-308b751a8052431c9ef25aa1203d73cd</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/645368c71f3d25486bb482d5</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64bfce6500cbd3e3b8db25e3</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0015I00000k7ZSw-c0b95ddea1994ce2928eb25d5a21f8ce</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0010J00001vIdYP-1688827185-0802235cd7bb412c8f9a2cb3df85b226</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b53368277557516bdc4bfc</t>
   </si>
 </sst>
 </file>
@@ -278,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +485,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,7 +658,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -635,6 +670,8 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -684,59 +721,7 @@
     <cellStyle name="Warnender Text" xfId="16" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="15" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -747,25 +732,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
-    <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
-    <tableColumn id="3" xr3:uid="{74731BCF-CC5F-4C60-815C-EDF81A216709}" name="Bezirk"/>
-    <tableColumn id="9" xr3:uid="{08BF5339-C167-4399-96A0-927C14A9FE91}" name="Lat"/>
-    <tableColumn id="10" xr3:uid="{EFE111B3-EB66-4014-8BDA-E31E79B1AAA3}" name="Lon"/>
-    <tableColumn id="4" xr3:uid="{7ECF100E-83D8-4899-809E-9ABE1B9D9FB3}" name="Flaeche" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{CEEFDD3A-C460-4139-8592-F00C135A4E0B}" name="Zimmer"/>
-    <tableColumn id="6" xr3:uid="{32B0735F-A33A-4C99-845F-48F2B4024B0F}" name="Kosten" dataCellStyle="Währung"/>
-    <tableColumn id="8" xr3:uid="{44EF8550-C2A2-4C2F-B093-1496FF0F7143}" name="Bild" dataDxfId="0" dataCellStyle="Währung"/>
-    <tableColumn id="7" xr3:uid="{F33DB2B7-516E-4156-8618-E2CF7C5CBF46}" name="Link" dataCellStyle="Link"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,79 +996,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C1147-52DE-4C11-8FC0-D55643564AE3}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A9:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="213.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="157.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45170</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>48.224250905404297</v>
+      </c>
+      <c r="E2">
+        <v>16.3105098246984</v>
       </c>
       <c r="F2" s="5">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>1195</v>
+        <v>1016</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1110,31 +1071,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45122</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>48.1811460831359</v>
+      </c>
+      <c r="E3">
+        <v>16.359199378402401</v>
+      </c>
+      <c r="F3" s="5">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>898</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D3">
-        <v>48.224250905404297</v>
-      </c>
-      <c r="E3">
-        <v>16.3105098246984</v>
-      </c>
-      <c r="F3" s="5">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1016</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -1142,31 +1103,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45122</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>48.1811460831359</v>
+        <v>48.227338106757202</v>
       </c>
       <c r="E4">
-        <v>16.359199378402401</v>
+        <v>16.355213370733502</v>
       </c>
       <c r="F4" s="5">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>898</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>920</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -1174,63 +1135,63 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>48.215990344736802</v>
+      </c>
+      <c r="E5">
+        <v>16.330266459401201</v>
+      </c>
+      <c r="F5" s="5">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1115</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>48.227338106757202</v>
-      </c>
-      <c r="E5">
-        <v>16.355213370733502</v>
-      </c>
-      <c r="F5" s="5">
-        <v>95</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>920</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45153</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>48.215990344736802</v>
+        <v>48.187539527036897</v>
       </c>
       <c r="E6">
-        <v>16.330266459401201</v>
+        <v>16.3850649576063</v>
       </c>
       <c r="F6" s="5">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
@@ -1238,197 +1199,332 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>45153</v>
+        <v>45170</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>48.187539527036897</v>
+        <v>48.191374732872603</v>
       </c>
       <c r="E7">
-        <v>16.3850649576063</v>
+        <v>16.369702441589901</v>
       </c>
       <c r="F7" s="5">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1025</v>
-      </c>
-      <c r="I7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>990</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>45170</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>48.191374732872603</v>
+        <v>48.1857062785569</v>
       </c>
       <c r="E8">
-        <v>16.369702441589901</v>
+        <v>16.3527917208906</v>
       </c>
       <c r="F8" s="5">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>990</v>
-      </c>
-      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
+      <c r="J8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>48.1857062785569</v>
+        <v>48.190726994588204</v>
       </c>
       <c r="E9">
-        <v>16.3527917208906</v>
+        <v>16.326481199566999</v>
       </c>
       <c r="F9" s="5">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>1227.1400000000001</v>
+        <v>1053</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45200</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>48.190726994588204</v>
+        <v>48.201588356949202</v>
       </c>
       <c r="E10">
-        <v>16.326481199566999</v>
+        <v>16.390848359916099</v>
       </c>
       <c r="F10" s="5">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>1053</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
+      <c r="A11" s="6">
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>48.201588356949202</v>
+        <v>48.198431993278902</v>
       </c>
       <c r="E11">
-        <v>16.390848359916099</v>
+        <v>16.365544789384199</v>
       </c>
       <c r="F11" s="5">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>1279</v>
-      </c>
-      <c r="I11" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>48.178791879408401</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16.329978256933199</v>
+      </c>
+      <c r="F12" s="5">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1215</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>48.191788893938899</v>
+      </c>
+      <c r="E13">
+        <v>16.332557768574102</v>
+      </c>
+      <c r="F13" s="5">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1127</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45170</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1350</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>15.08</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>48.181493788004197</v>
+      </c>
+      <c r="E15">
+        <v>16.397283668298599</v>
+      </c>
+      <c r="F15" s="5">
+        <v>105</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1250</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>48.186695565981999</v>
+      </c>
+      <c r="E16">
+        <v>16.3349432722773</v>
+      </c>
+      <c r="F16" s="5">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>959</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{4C0F0843-431F-4E38-B1A6-766B7F4C1DFF}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{072C1CD6-41DA-404D-BF7F-1625F5EEB603}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{1C1E9C2C-D27D-48FB-A9A0-32EC4BE0F46D}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{6F6C6EFD-4425-4B5C-BEA1-3E8F0487ACF5}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
-    <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{5F63B64E-6006-4343-BCED-C7BC51826116}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{FFEA6309-5905-42D5-A9C4-FA398F4648FA}"/>
+    <hyperlink ref="I10" r:id="rId1" xr:uid="{EF4CC48F-0886-4B27-81AC-E06FA3200B36}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{BA066578-6E2E-4EAB-BACC-9CDE25B7A316}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{165BACA8-C74F-4332-A2EE-48D93CE71351}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{B80AA357-D714-4696-9117-8B1508A6F5F6}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{632553B4-7F34-4785-9791-38B4434EA6DB}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{86B4B2BE-C16B-48AF-A5C4-B149C954F287}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{EF3CA0B1-CC21-4D37-AB19-C5EE81E7C302}"/>
+    <hyperlink ref="I2" r:id="rId8" xr:uid="{19703F1C-AAC5-4461-A565-9B40553264FC}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{4264923B-9624-4250-B297-B58D1418D92F}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{07A84B7F-8A4A-4EC1-9B6D-C1BA2EB6C18D}"/>
+    <hyperlink ref="J2" r:id="rId11" xr:uid="{6F70B6A6-31F5-4A1D-9837-5C02BB42F6F8}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId14"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C1147-52DE-4C11-8FC0-D55643564AE3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D69D89-9DC5-4B20-AFEC-45B7D4CBF8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B105CFF-2A20-49F2-AA9B-68CDABE9DD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,8 +1451,8 @@
       <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>15.08</v>
+      <c r="B15" s="12">
+        <v>45153</v>
       </c>
       <c r="C15">
         <v>3</v>

--- a/230725-Wohnungssuche-Wien.xlsx
+++ b/230725-Wohnungssuche-Wien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B105CFF-2A20-49F2-AA9B-68CDABE9DD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5AA59-1443-46D1-8A17-5E4F66A54B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Bezirk</t>
   </si>
@@ -148,6 +148,72 @@
   </si>
   <si>
     <t>https://www.immobilienscout24.at/expose/64b53368277557516bdc4bfc</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0015I00000eKQSW-b41f64b511b94e00981d0f697cce8c9d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/63fbb162359ced4bd48c5479</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r0y-1672869236-9306a7ce5d1041aeb20fde076bf2104a</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64be8325ce7e1827ef88887f</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3rCX-0ac6f64db48246399d89f8b11452f88d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64a27bbdb329cf9d73b2faca</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3rDV-1681994989-99f91cfe200642738ac0b76911edaddd</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64411e0710ab64615fd5d771</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83Xq-1532449803-1b334ad158004d7c9ac6d5e531bf298d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64ae8352151a4e9dd71b259e</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r8I-1689692457-2dc7e81244ff4a8591b5f166bddc7eb5</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b694764b1cf154771f6298</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3qyD-1683834070-fb47731093d74748b5fe6369bab3ac08</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64778daebae09b50ac941662</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E8454-1690287352-fb3c755ea92b46439c19f9fba9ccac51</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64c13050f559efdbd1315b9c</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83tC-1506364645-94f6d35f7dff467dba7ce6f64423a268</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64c27bba31a7b225b411981b</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r8e-1688422058-a3adfa3500964a7cb146c852609b8f34</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64a32ac8b916c2323b0948a7</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0010J00001vIdYP-1526316842-91f2a22e0a6745bf8c60ed3c21e33d74</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b5544d2b531223e8974c87</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C1147-52DE-4C11-8FC0-D55643564AE3}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,6 +1575,352 @@
       </c>
       <c r="J16" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45139</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>48.195144623049103</v>
+      </c>
+      <c r="E17">
+        <v>16.403899197410301</v>
+      </c>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1397</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>48.187848282514999</v>
+      </c>
+      <c r="E18">
+        <v>16.368954197409899</v>
+      </c>
+      <c r="F18">
+        <v>110</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1498</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>48.194758078657998</v>
+      </c>
+      <c r="E19">
+        <v>16.369665653230498</v>
+      </c>
+      <c r="F19">
+        <v>96</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1467</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>48.230805123040803</v>
+      </c>
+      <c r="E20">
+        <v>16.353221726517098</v>
+      </c>
+      <c r="F20">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1368</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>48.2287924500489</v>
+      </c>
+      <c r="E21">
+        <v>16.354899896970199</v>
+      </c>
+      <c r="F21">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1472</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <v>45139</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>48.182491796168001</v>
+      </c>
+      <c r="E22">
+        <v>16.360931040537601</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>48.192512483595202</v>
+      </c>
+      <c r="E23">
+        <v>16.3741518025925</v>
+      </c>
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1476</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>48.193016214980702</v>
+      </c>
+      <c r="E24">
+        <v>16.387617110902301</v>
+      </c>
+      <c r="F24">
+        <v>116</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>1490</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>112</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1350</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>48.190577086674701</v>
+      </c>
+      <c r="E26">
+        <v>16.371605643582502</v>
+      </c>
+      <c r="F26">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>48.205897240565697</v>
+      </c>
+      <c r="E27">
+        <v>16.3366343650986</v>
+      </c>
+      <c r="F27">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>958</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
